--- a/biology/Botanique/Parcs_et_espaces_verts_dans_le_borough_londonien_de_Barking_et_Dagenham/Parcs_et_espaces_verts_dans_le_borough_londonien_de_Barking_et_Dagenham.xlsx
+++ b/biology/Botanique/Parcs_et_espaces_verts_dans_le_borough_londonien_de_Barking_et_Dagenham/Parcs_et_espaces_verts_dans_le_borough_londonien_de_Barking_et_Dagenham.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Borough londonien de Barking et Dagenham, l’un des boroughs périphériques de Londres, comptent plus de 25 parcs, jardins et espaces verts. Ceux-ci fournissent les "poumons verts" pour les activités de loisirs.
 </t>
@@ -511,11 +523,48 @@
           <t>Principaux espaces verts</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Outre les espaces verts plus petits tels que les terrains de sport et les jardins plus petits, voici les principaux espaces verts de l’arrondissement:
-Barking
-Barking Park
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Parcs_et_espaces_verts_dans_le_borough_londonien_de_Barking_et_Dagenham</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Parcs_et_espaces_verts_dans_le_borough_londonien_de_Barking_et_Dagenham</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Principaux espaces verts</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Barking</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Barking Park
 Greatfields Park
 Newlands Park
 Essex Road Gardens
@@ -523,9 +572,43 @@
 Quaker Gardens
 Barking Abbey Ruins
 Barking Town Quay Open Space
-St. Margaret's Churchyard
-Dagenham
-Central Park
+St. Margaret's Churchyard</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Parcs_et_espaces_verts_dans_le_borough_londonien_de_Barking_et_Dagenham</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Parcs_et_espaces_verts_dans_le_borough_londonien_de_Barking_et_Dagenham</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Principaux espaces verts</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Dagenham</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Central Park
 Valence Park et Valence House Grounds
 Parsloes Park
 Mayesbrook Park
@@ -535,43 +618,113 @@
 Goresbrook Park
 Eastbrookend Country Park
 King George's Field
-The Leys
-Chadwell Heath
-St. Chads Park
-Marks Gate Open Space (Aussi appelé Tantony Green)
-Marks Gate
-Marks Gate Open Space (Aussi appelé Tantony Green)
+The Leys</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Parcs_et_espaces_verts_dans_le_borough_londonien_de_Barking_et_Dagenham</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Parcs_et_espaces_verts_dans_le_borough_londonien_de_Barking_et_Dagenham</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Principaux espaces verts</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Chadwell Heath</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>St. Chads Park
+Marks Gate Open Space (Aussi appelé Tantony Green)</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Parcs_et_espaces_verts_dans_le_borough_londonien_de_Barking_et_Dagenham</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Parcs_et_espaces_verts_dans_le_borough_londonien_de_Barking_et_Dagenham</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Principaux espaces verts</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Marks Gate</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Marks Gate Open Space (Aussi appelé Tantony Green)
 Kingston Hill Avenue Recreation Ground
-Le Mayesbrook Park, dans le borough, est l'un des 11 parcs du Grand Londres choisis pour recevoir des fonds pour le réaménagement par vote public en 2009. Le parc a reçu 400 000 £ pour de meilleurs sentiers, plus de lumière, des toilettes publiques rénovées et de nouvelles aires de jeux pour enfants[1].
+Le Mayesbrook Park, dans le borough, est l'un des 11 parcs du Grand Londres choisis pour recevoir des fonds pour le réaménagement par vote public en 2009. Le parc a reçu 400 000 £ pour de meilleurs sentiers, plus de lumière, des toilettes publiques rénovées et de nouvelles aires de jeux pour enfants.
 </t>
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
         <is>
           <t>Parcs_et_espaces_verts_dans_le_borough_londonien_de_Barking_et_Dagenham</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>Portail:Botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Parcs_et_espaces_verts_dans_le_borough_londonien_de_Barking_et_Dagenham</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>Eau</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">La Tamise forme la limite sud du borough. Dans de nombreux endroits, il y a un sentier qui longe la rivière. Cependant, la vue est problématique en raison des fortes protections anti-inondations et des locaux industriels situés au bord de l'eau.
 La Rivière Roding forme la frontière ouest avec le Borough londonien de Newham. Ceci est accessible autour du quartier de Town Quay, l'ancien port de Barking.
@@ -579,31 +732,33 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
         <is>
           <t>Parcs_et_espaces_verts_dans_le_borough_londonien_de_Barking_et_Dagenham</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C9" t="inlineStr">
         <is>
           <t>Portail:Botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Parcs_et_espaces_verts_dans_le_borough_londonien_de_Barking_et_Dagenham</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>Réserves naturelles locales</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t xml:space="preserve">Les réserves naturelles locales du borough sont: Beam Valley Country Park, Dagenham Village Churchyard, Eastbrookend Country Park, Mayesbrook Park South, Parsloes Park Squatts, Ripple Nature Reserve, Scrattons Eco Park et The Chase Nature Reserve.
 </t>
